--- a/Adult Income Simple RF/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_test .xlsx
+++ b/Adult Income Simple RF/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_test .xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6722428748451054</v>
+        <v>0.6721062616944622</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.00139164</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7724061233639949</v>
+        <v>0.7719476064277901</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.00100737</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.618699910952805</v>
+        <v>0.3607126412471388</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.00343565</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7301582245043079</v>
+        <v>0.6095683131191689</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.00140341</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6582584657912923</v>
+        <v>0.214200059436902</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0717255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7541391393249506</v>
+        <v>0.5607314724117349</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.02241928</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RF_simp_1_sample:12_cf:1_mean_of_1_iterations_only_cf</t>
+          <t>RF_simp_1_sample:20_cf:1_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05632880301293598</v>
+        <v>0.03939430368602879</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.01283304</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4026270893602195</v>
+        <v>0.436407221411498</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.06161973</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF_simp_2_sample:12_cf:1_mean_of_1_iterations_only_cf</t>
+          <t>RF_simp_2_sample:20_cf:1_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02356091030789826</v>
+        <v>0.03894206016119051</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.01851073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4952564347868302</v>
+        <v>0.4785262246299623</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.02562598</v>
       </c>
     </row>
     <row r="7">
@@ -656,32 +656,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RF_simp_1_sample:12_cf:2_mean_of_1_iterations_only_cf</t>
+          <t>RF_simp_1_sample:20_cf:2_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05525051475634866</v>
+        <v>0.05122398134825422</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0177261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4143080301684625</v>
+        <v>0.4447866874948239</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.03554153</v>
       </c>
     </row>
     <row r="8">
@@ -690,32 +690,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RF_simp_2_sample:12_cf:2_mean_of_1_iterations_only_cf</t>
+          <t>RF_simp_2_sample:20_cf:2_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07811663991439273</v>
+        <v>0.06001446227947911</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.01794326</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4364844916853958</v>
+        <v>0.4548362709792756</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.06395936000000001</v>
       </c>
     </row>
   </sheetData>
